--- a/Database-and-Process-Specification.xlsx
+++ b/Database-and-Process-Specification.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C9703-1BC7-42E3-930C-4958E1444937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database Schema" sheetId="2" r:id="rId1"/>
     <sheet name="Processes" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>List of Process That the User can Do:</t>
   </si>
@@ -36,69 +46,6 @@
     <t>Fields</t>
   </si>
   <si>
-    <t>bookId</t>
-  </si>
-  <si>
-    <t>bookName</t>
-  </si>
-  <si>
-    <t>bookStatus</t>
-  </si>
-  <si>
-    <t>bookAuthor</t>
-  </si>
-  <si>
-    <t>borrowerInfo</t>
-  </si>
-  <si>
-    <t>booksInfo</t>
-  </si>
-  <si>
-    <t>borrowerId</t>
-  </si>
-  <si>
-    <t>borrowerName</t>
-  </si>
-  <si>
-    <t>borrowerAddress</t>
-  </si>
-  <si>
-    <t>borrowerGender</t>
-  </si>
-  <si>
-    <t>borrowerContactNumber</t>
-  </si>
-  <si>
-    <t>borrowInfo</t>
-  </si>
-  <si>
-    <t>borrowId</t>
-  </si>
-  <si>
-    <t>borrowStatus</t>
-  </si>
-  <si>
-    <t>borrowDate</t>
-  </si>
-  <si>
-    <t>borrowQuantity</t>
-  </si>
-  <si>
-    <t>librarianInfo</t>
-  </si>
-  <si>
-    <t>librarianId</t>
-  </si>
-  <si>
-    <t>librarianName</t>
-  </si>
-  <si>
-    <t>librarianUsername</t>
-  </si>
-  <si>
-    <t>librarianPassword</t>
-  </si>
-  <si>
     <t>Table Name</t>
   </si>
   <si>
@@ -141,24 +88,6 @@
     <t>1. Manage users (create, update, deactivate)</t>
   </si>
   <si>
-    <t>2. Approve/decline food requests</t>
-  </si>
-  <si>
-    <t>3. Approve/decline donations</t>
-  </si>
-  <si>
-    <t>4. Assign community admins or staff</t>
-  </si>
-  <si>
-    <t>5. Monitor audit logs</t>
-  </si>
-  <si>
-    <t>6. View reports and analytics</t>
-  </si>
-  <si>
-    <t>7. Oversee kitchens and drivers</t>
-  </si>
-  <si>
     <t>1. Update availability status</t>
   </si>
   <si>
@@ -253,12 +182,99 @@
   </si>
   <si>
     <t>6. Post donation updates (via feeds)</t>
+  </si>
+  <si>
+    <t>2. Approve/decline donations</t>
+  </si>
+  <si>
+    <t>3. Assign community admins or staff</t>
+  </si>
+  <si>
+    <t>4. Monitor audit logs</t>
+  </si>
+  <si>
+    <t>5. View reports and analytics</t>
+  </si>
+  <si>
+    <t>6. Oversee kitchens and drivers</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password_hash</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>contact_number</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>date_created</t>
+  </si>
+  <si>
+    <t>admins</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>access_level</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>drivers</t>
+  </si>
+  <si>
+    <t>driver_id</t>
+  </si>
+  <si>
+    <t>licensed_number</t>
+  </si>
+  <si>
+    <t>vechicle_type</t>
+  </si>
+  <si>
+    <t>availability_status</t>
+  </si>
+  <si>
+    <t>last_active</t>
+  </si>
+  <si>
+    <t>community_kitchens</t>
+  </si>
+  <si>
+    <t>kitchen_id</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>contact_person</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,6 +405,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107518</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B72EE71-2F47-BD9B-95B6-879EE2D809B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9037320" y="365760"/>
+          <a:ext cx="5692978" cy="4069079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,22 +724,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -682,308 +758,315 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Database-and-Process-Specification.xlsx
+++ b/Database-and-Process-Specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C9703-1BC7-42E3-930C-4958E1444937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3A851-334E-4D41-9502-C3B96C16DF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="5625" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database Schema" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
   <si>
     <t>List of Process That the User can Do:</t>
   </si>
@@ -269,6 +269,159 @@
   </si>
   <si>
     <t>capacity</t>
+  </si>
+  <si>
+    <t>food_details</t>
+  </si>
+  <si>
+    <t>food_id</t>
+  </si>
+  <si>
+    <t>food_name</t>
+  </si>
+  <si>
+    <t>food_desc</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>food_inventory</t>
+  </si>
+  <si>
+    <t>inventory_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>expirey_date</t>
+  </si>
+  <si>
+    <t>last_updated</t>
+  </si>
+  <si>
+    <t>food_requests</t>
+  </si>
+  <si>
+    <t>request_id</t>
+  </si>
+  <si>
+    <t>request_date</t>
+  </si>
+  <si>
+    <t>request_type</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>approved_by</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>delivery_id</t>
+  </si>
+  <si>
+    <t>donation_id</t>
+  </si>
+  <si>
+    <t>pickup_location</t>
+  </si>
+  <si>
+    <t>dropoff_location</t>
+  </si>
+  <si>
+    <t>delivery_time</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>date_donated</t>
+  </si>
+  <si>
+    <t>donated_location</t>
+  </si>
+  <si>
+    <t>donation_items</t>
+  </si>
+  <si>
+    <t>donation_item_id</t>
+  </si>
+  <si>
+    <t>donation_payments</t>
+  </si>
+  <si>
+    <t>donation_payment_id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>reference_number</t>
+  </si>
+  <si>
+    <t>feeds</t>
+  </si>
+  <si>
+    <t>feed_id</t>
+  </si>
+  <si>
+    <t>post_type</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>date_posted</t>
+  </si>
+  <si>
+    <t>payments</t>
+  </si>
+  <si>
+    <t>payment_id</t>
+  </si>
+  <si>
+    <t>transaction_type</t>
+  </si>
+  <si>
+    <t>payment_status</t>
+  </si>
+  <si>
+    <t>transaction_date</t>
+  </si>
+  <si>
+    <t>status_logs</t>
+  </si>
+  <si>
+    <t>log_id</t>
+  </si>
+  <si>
+    <t>old_status</t>
+  </si>
+  <si>
+    <t>new_status</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>change_date</t>
+  </si>
+  <si>
+    <t>deleted_date</t>
   </si>
 </sst>
 </file>
@@ -405,61 +558,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>107518</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B72EE71-2F47-BD9B-95B6-879EE2D809B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9037320" y="365760"/>
-          <a:ext cx="5692978" cy="4069079"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,13 +836,19 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
     <col min="9" max="9" width="26.77734375" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -757,8 +861,38 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -774,8 +908,38 @@
       <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>55</v>
       </c>
@@ -788,8 +952,38 @@
       <c r="E3" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>56</v>
       </c>
@@ -802,8 +996,38 @@
       <c r="E4" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
@@ -816,8 +1040,38 @@
       <c r="E5" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
@@ -830,8 +1084,38 @@
       <c r="E6" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
@@ -841,48 +1125,127 @@
       <c r="E7" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N11" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
